--- a/src/main/resources/jxls_templates/warehousebeginstock_import.xlsx
+++ b/src/main/resources/jxls_templates/warehousebeginstock_import.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>期初库存导入</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>生产日期</t>
+  </si>
+  <si>
+    <t>打印模板标签</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1087,7 +1090,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1109,6 +1112,9 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7"/>

--- a/src/main/resources/jxls_templates/warehousebeginstock_import.xlsx
+++ b/src/main/resources/jxls_templates/warehousebeginstock_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="21600" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>期初库存导入</t>
   </si>
   <si>
-    <t>仓库名称</t>
+    <t>*仓库编码</t>
   </si>
   <si>
-    <t>库区名称</t>
+    <t>库区编码</t>
   </si>
   <si>
-    <t>存货编码</t>
+    <t>*存货编码</t>
   </si>
   <si>
-    <t>供应商名称</t>
+    <t>供应商编码</t>
   </si>
   <si>
-    <t>生成条码库存数量</t>
+    <t>*生成条码库存数量</t>
   </si>
   <si>
-    <t>批次号</t>
+    <t>*批次号</t>
   </si>
   <si>
-    <t>生产日期</t>
+    <t>*批次日期</t>
   </si>
   <si>
-    <t>打印模板标签</t>
+    <t>*生产日期</t>
+  </si>
+  <si>
+    <t>*打印模板标签</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -437,19 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,7 +566,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,7 +596,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,28 +614,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,10 +644,10 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,7 +724,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1059,26 +1049,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5044247787611" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.8761061946903" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5044247787611" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.3716814159292" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1238938053097" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88333333333333" style="2"/>
+    <col min="7" max="8" width="13.6283185840708" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.8761061946903" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88495575221239" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:8">
+    <row r="1" ht="25.1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1079,9 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1112,8 +1103,11 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1124,7 +1118,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
